--- a/CASUAL/LA PICNIC GROVE/DE LEON, ANALITA BAYOT.xlsx
+++ b/CASUAL/LA PICNIC GROVE/DE LEON, ANALITA BAYOT.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -232,6 +232,27 @@
   </si>
   <si>
     <t>UT(0-1-17)</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
+  </si>
+  <si>
+    <t>UT(0-2-9)</t>
+  </si>
+  <si>
+    <t>UT(0-1-22)</t>
+  </si>
+  <si>
+    <t>UT(0-0-54)</t>
+  </si>
+  <si>
+    <t>UT(0-0-34)</t>
+  </si>
+  <si>
+    <t>UT(0-0-52)</t>
+  </si>
+  <si>
+    <t>UT(0-1-29)</t>
   </si>
 </sst>
 </file>
@@ -619,15 +640,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -640,11 +652,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1341,7 +1362,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1405,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,7 +1469,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +1529,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1595,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,7 +1658,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1735,7 +1756,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1794,7 +1815,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1880,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1902,7 +1923,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1998,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2184,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2229,7 +2250,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2308,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2374,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2430,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,7 +2505,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2548,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2614,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2649,7 +2670,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2768,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2831,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2876,7 +2897,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3284,12 +3305,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="4470" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="4470" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="K13" sqref="K13"/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3319,14 +3340,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3337,16 +3358,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="55">
         <v>43101</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3359,14 +3380,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3392,18 +3413,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3450,7 +3471,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>50.204999999999998</v>
+        <v>49.287000000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4585,11 +4606,15 @@
       <c r="A65" s="40">
         <v>44621</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
-      <c r="D65" s="39"/>
+      <c r="D65" s="39">
+        <v>0.18500000000000003</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
@@ -4605,11 +4630,15 @@
       <c r="A66" s="40">
         <v>44652</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="39"/>
+      <c r="D66" s="39">
+        <v>0.10800000000000001</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -4625,11 +4654,15 @@
       <c r="A67" s="40">
         <v>44682</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="39"/>
+      <c r="D67" s="39">
+        <v>7.1000000000000008E-2</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -4668,19 +4701,19 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D69" s="39"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="39">
+        <v>0.11200000000000002</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
@@ -4689,13 +4722,17 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B70" s="20"/>
+        <v>44743</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="39"/>
+      <c r="D70" s="39">
+        <v>0.17100000000000001</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -4709,72 +4746,68 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="39"/>
+      <c r="D71" s="39">
+        <v>0.26900000000000002</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H71" s="39">
-        <v>5</v>
-      </c>
+      <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="39">
-        <v>0.16000000000000003</v>
-      </c>
+      <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H72" s="39"/>
+      <c r="H72" s="39">
+        <v>5</v>
+      </c>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="13">
-        <v>1.25</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C73" s="13"/>
       <c r="D73" s="39">
-        <v>0.13300000000000001</v>
+        <v>2E-3</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
@@ -4783,16 +4816,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>44896</v>
+        <v>44835</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
       <c r="D74" s="39">
-        <v>5</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
@@ -4806,19 +4839,23 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+      <c r="A75" s="40">
+        <v>44866</v>
+      </c>
       <c r="B75" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="39">
-        <v>0.502</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
@@ -4826,17 +4863,23 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
+      <c r="A76" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D76" s="39">
+        <v>5</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4844,19 +4887,19 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D77" s="39"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="39">
+        <v>0.502</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4864,19 +4907,17 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
-        <v>44958</v>
+      <c r="A78" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C78" s="13"/>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4885,7 +4926,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4905,7 +4946,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4925,17 +4966,13 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>57</v>
-      </c>
+        <v>44986</v>
+      </c>
+      <c r="B81" s="20"/>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
-      <c r="D81" s="39">
-        <v>8</v>
-      </c>
+      <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13">
@@ -4945,13 +4982,11 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="50" t="s">
-        <v>58</v>
-      </c>
+      <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -4971,13 +5006,17 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B83" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C83" s="13">
         <v>1.25</v>
       </c>
-      <c r="D83" s="39"/>
+      <c r="D83" s="39">
+        <v>8</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13">
@@ -4987,11 +5026,13 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="50" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -5011,7 +5052,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -5031,7 +5072,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -5051,7 +5092,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -5071,17 +5112,13 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>60</v>
-      </c>
+        <v>45200</v>
+      </c>
+      <c r="B88" s="20"/>
       <c r="C88" s="13">
         <v>1.25</v>
       </c>
-      <c r="D88" s="39">
-        <v>6</v>
-      </c>
+      <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
       <c r="G88" s="13">
@@ -5091,22 +5128,22 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="48" t="s">
-        <v>59</v>
+      <c r="A89" s="40">
+        <v>45231</v>
       </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -5115,25 +5152,33 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D90" s="39">
+        <v>6</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40">
-        <v>45323</v>
+      <c r="A91" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5151,7 +5196,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5169,7 +5214,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5187,7 +5232,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5205,7 +5250,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5223,7 +5268,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5241,7 +5286,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5259,7 +5304,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5277,7 +5322,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5295,7 +5340,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5313,7 +5358,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5331,7 +5376,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5349,7 +5394,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5367,7 +5412,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5384,7 +5429,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45689</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5400,7 +5447,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45717</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -5880,34 +5929,66 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="43"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="41"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="43"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5976,14 +6057,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5997,17 +6078,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="55">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>43101</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6021,17 +6102,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6057,18 +6138,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -8183,11 +8264,11 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.16000000000000003</v>
+        <v>0.18500000000000003</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -8236,7 +8317,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <f>SUM('2018 LEAVE CREDITS'!$E$9,'2018 LEAVE CREDITS'!$I$9)</f>
-        <v>128.20499999999998</v>
+        <v>127.28700000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
